--- a/Projekt1/wyniki.xlsx
+++ b/Projekt1/wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kamil\Desktop\studia\4 sem\AiZO\Projekt1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DF5B50-F643-4344-8092-A6E503D7CA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604659B5-C7CA-42EC-95A0-311B9425D1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,12 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="22">
   <si>
     <t>elements</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
   <si>
     <t>10 k</t>
@@ -55,6 +52,48 @@
   </si>
   <si>
     <t>70 k</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>sorted desc</t>
+  </si>
+  <si>
+    <t>sorted 33%</t>
+  </si>
+  <si>
+    <t>sorted 66%</t>
+  </si>
+  <si>
+    <t>sorted</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>time [ms]</t>
+  </si>
+  <si>
+    <t>left pivot</t>
+  </si>
+  <si>
+    <t>right pivot</t>
+  </si>
+  <si>
+    <t>middle pivot</t>
+  </si>
+  <si>
+    <t>random pivot</t>
+  </si>
+  <si>
+    <t>Shell version</t>
+  </si>
+  <si>
+    <t>Knuth version</t>
   </si>
 </sst>
 </file>
@@ -78,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -86,12 +125,228 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -107,6 +362,957 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:noFill/>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Insertionsort!$B$4:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10 k</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20 k</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30 k</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40 k</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50 k</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60 k</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70 k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Insertionsort!$C$4:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1880</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2554</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EBD2-4339-862C-27EAEC1938CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1337732800"/>
+        <c:axId val="1337734240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1337732800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1337734240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1337734240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1337732800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEA4B8D3-8859-0E56-B510-D5B53AE13664}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -372,94 +1578,1044 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:C10"/>
+  <dimension ref="B1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="3"/>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="C4">
+        <v>53</v>
+      </c>
+      <c r="D4">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="C5">
+        <v>209</v>
+      </c>
+      <c r="D5">
+        <v>94</v>
+      </c>
+      <c r="E5">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="C6">
+        <v>471</v>
+      </c>
+      <c r="D6">
+        <v>211</v>
+      </c>
+      <c r="E6">
+        <v>54</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="C7">
+        <v>836</v>
+      </c>
+      <c r="D7">
+        <v>376</v>
+      </c>
+      <c r="E7">
+        <v>97</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="C8">
+        <v>1308</v>
+      </c>
+      <c r="D8">
+        <v>586</v>
+      </c>
+      <c r="E8">
+        <v>151</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="C9">
+        <v>1880</v>
+      </c>
+      <c r="D9">
+        <v>843</v>
+      </c>
+      <c r="E9">
+        <v>217</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>8</v>
+      <c r="C10">
+        <v>2554</v>
+      </c>
+      <c r="D10">
+        <v>1146</v>
+      </c>
+      <c r="E10">
+        <v>296</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>5196</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="H2:L2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAF4B33-A061-4AFA-B8A2-C43A7DBEE006}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="11"/>
+      <c r="C2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="10"/>
+      <c r="C4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>3</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>4</v>
+      </c>
+      <c r="I7" s="4">
+        <v>3</v>
+      </c>
+      <c r="J7" s="4">
+        <v>2</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>6</v>
+      </c>
+      <c r="I8" s="4">
+        <v>4</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4">
+        <v>6</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3</v>
+      </c>
+      <c r="H9" s="4">
+        <v>8</v>
+      </c>
+      <c r="I9" s="4">
+        <v>6</v>
+      </c>
+      <c r="J9" s="4">
+        <v>3</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4">
+        <v>4</v>
+      </c>
+      <c r="H10" s="4">
+        <v>10</v>
+      </c>
+      <c r="I10" s="4">
+        <v>7</v>
+      </c>
+      <c r="J10" s="4">
+        <v>4</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4">
+        <v>6</v>
+      </c>
+      <c r="F11" s="4">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4">
+        <v>12</v>
+      </c>
+      <c r="I11" s="4">
+        <v>8</v>
+      </c>
+      <c r="J11" s="4">
+        <v>5</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2</v>
+      </c>
+      <c r="L11" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:L3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F2CE66-B50E-4F48-9965-28B8C66FE269}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:L3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6D1515-F214-4EDE-801A-625DC2902ADD}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:V11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" t="s">
+        <v>13</v>
+      </c>
+      <c r="V4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>47</v>
+      </c>
+      <c r="E5">
+        <v>75</v>
+      </c>
+      <c r="F5">
+        <v>85</v>
+      </c>
+      <c r="G5">
+        <v>79</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>184</v>
+      </c>
+      <c r="E6">
+        <v>293</v>
+      </c>
+      <c r="F6">
+        <v>330</v>
+      </c>
+      <c r="G6">
+        <v>291</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:V3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>